--- a/order.xlsx
+++ b/order.xlsx
@@ -105,175 +105,436 @@
     </row>
     <row r="2" spans="1:8" customHeight="0">
       <c r="A2" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>22,464,750</t>
+          <t>56490000</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Đang chờ xử lý!</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>2023-04-07 09:16:44</t>
+          <t>2023-04-10 10:51:17</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:8" customHeight="0">
       <c r="A3" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>525,000</t>
+          <t>17430000</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Đang chờ xử lý!</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0">
         <v>4</v>
       </c>
-      <c r="E3" s="0">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0">
-        <v>7</v>
-      </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>2023-04-07 09:18:58</t>
+          <t>2023-03-10 10:54:27</t>
         </is>
       </c>
     </row>
     <row r="4" spans="1:8" customHeight="0">
       <c r="A4" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>11,539,500</t>
+          <t>32917500</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Đang chờ xử lý!</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F4" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>2023-04-07 09:19:44</t>
+          <t>2023-02-10 10:55:58</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:8" customHeight="0">
       <c r="A5" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>17,850,000</t>
+          <t>29274000</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Đang chờ xử lý!</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F5" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>2023-04-07 09:20:21</t>
+          <t>2023-01-10 10:57:27</t>
         </is>
       </c>
     </row>
     <row r="6" spans="1:8" customHeight="0">
       <c r="A6" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>13,209,000</t>
+          <t>13650000</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Đang chờ xử lý!</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F6" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>2023-04-07 09:21:40</t>
+          <t>2023-04-10 10:59:37</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:8" customHeight="0">
       <c r="A7" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>1,071,000</t>
+          <t>25410000</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Đang chờ xử lý!</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0">
+        <v>6</v>
+      </c>
+      <c r="F7" s="0">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>2023-04-10 11:00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customHeight="0">
+      <c r="A8" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>39060000</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" s="0">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>2023-01-14 10:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:8" customHeight="0">
+      <c r="A9" s="0">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>2572500</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" s="0">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0">
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14 14:29:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:8" customHeight="0">
+      <c r="A10" s="0">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>26250000</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0">
+        <v>15</v>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>2023-03-15 09:07:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customHeight="0">
+      <c r="A11" s="0">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>31500000</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" s="0">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0">
+        <v>16</v>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16 15:47:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customHeight="0">
+      <c r="A12" s="0">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>15120000</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" s="0">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0">
         <v>14</v>
       </c>
-      <c r="F7" s="0">
-        <v>11</v>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>2023-04-07 09:22:32</t>
+      <c r="F12" s="0">
+        <v>17</v>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>2023-04-25 09:41:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:8" customHeight="0">
+      <c r="A13" s="0">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>78120000</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="0">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0">
+        <v>15</v>
+      </c>
+      <c r="F13" s="0">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>2023-04-30 08:53:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customHeight="0">
+      <c r="A14" s="0">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>18060000</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" s="0">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0">
+        <v>16</v>
+      </c>
+      <c r="F14" s="0">
+        <v>19</v>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-02 11:41:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:8" customHeight="0">
+      <c r="A15" s="0">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>16537500</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" s="0">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0">
+        <v>20</v>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-03 20:27:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customHeight="0">
+      <c r="A16" s="0">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>39060000</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="0">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0">
+        <v>18</v>
+      </c>
+      <c r="F16" s="0">
+        <v>21</v>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-04 15:47:21</t>
         </is>
       </c>
     </row>

--- a/order.xlsx
+++ b/order.xlsx
@@ -143,7 +143,7 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" s="0">
@@ -192,40 +192,40 @@
     </row>
     <row r="5" spans="1:8" customHeight="0">
       <c r="A5" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>39060000</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" s="0">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>29274000</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" s="0">
-        <v>3</v>
-      </c>
       <c r="E5" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>2023-01-10 10:57:27</t>
+          <t>2023-01-14 10:11:15</t>
         </is>
       </c>
     </row>
     <row r="6" spans="1:8" customHeight="0">
       <c r="A6" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>13650000</t>
+          <t>2572500</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -234,27 +234,27 @@
         </is>
       </c>
       <c r="D6" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>2023-04-10 10:59:37</t>
+          <t>2023-02-10 14:29:26</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:8" customHeight="0">
       <c r="A7" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>25410000</t>
+          <t>26250000</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -266,82 +266,82 @@
         <v>2</v>
       </c>
       <c r="E7" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>2023-04-10 11:00:27</t>
+          <t>2023-03-10 09:07:48</t>
         </is>
       </c>
     </row>
     <row r="8" spans="1:8" customHeight="0">
       <c r="A8" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>39060000</t>
+          <t>31500000</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D8" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>2023-01-14 10:11:15</t>
+          <t>2023-02-10 15:47:05</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:8" customHeight="0">
       <c r="A9" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>2572500</t>
+          <t>15120000</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F9" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14 14:29:26</t>
+          <t>2023-04-10 09:41:44</t>
         </is>
       </c>
     </row>
     <row r="10" spans="1:8" customHeight="0">
       <c r="A10" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>26250000</t>
+          <t>18060000</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -350,56 +350,56 @@
         </is>
       </c>
       <c r="D10" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>2023-03-15 09:07:48</t>
+          <t>2023-05-02 11:41:30</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:8" customHeight="0">
       <c r="A11" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>31500000</t>
+          <t>16537500</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F11" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16 15:47:05</t>
+          <t>2023-05-02 20:27:03</t>
         </is>
       </c>
     </row>
     <row r="12" spans="1:8" customHeight="0">
       <c r="A12" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>15120000</t>
+          <t>39060000</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -408,27 +408,27 @@
         </is>
       </c>
       <c r="D12" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F12" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>2023-04-25 09:41:44</t>
+          <t>2023-05-04 15:47:21</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:8" customHeight="0">
       <c r="A13" s="0">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>78120000</t>
+          <t>75390000</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -437,23 +437,23 @@
         </is>
       </c>
       <c r="D13" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F13" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>2023-04-30 08:53:52</t>
+          <t>2023-05-05 10:20:16</t>
         </is>
       </c>
     </row>
     <row r="14" spans="1:8" customHeight="0">
       <c r="A14" s="0">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -469,72 +469,14 @@
         <v>1</v>
       </c>
       <c r="E14" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F14" s="0">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>2023-05-02 11:41:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" spans="1:8" customHeight="0">
-      <c r="A15" s="0">
-        <v>16</v>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>16537500</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" s="0">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0">
-        <v>17</v>
-      </c>
-      <c r="F15" s="0">
-        <v>20</v>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>2023-05-03 20:27:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customHeight="0">
-      <c r="A16" s="0">
-        <v>17</v>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>39060000</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" s="0">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0">
-        <v>18</v>
-      </c>
-      <c r="F16" s="0">
-        <v>21</v>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>2023-05-04 15:47:21</t>
+          <t>2023-05-16 20:19:33</t>
         </is>
       </c>
     </row>
